--- a/biology/Botanique/Tamonea/Tamonea.xlsx
+++ b/biology/Botanique/Tamonea/Tamonea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tamonea est un genre de plantes néotropicales de la famille des Verbenaceae comportant 11 espèces valides. L'espèce type est Tamonea spicata Aubl..
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Tamonea regroupe des herbacées des sous-arbrisseaux à feuilles simples, opposées décussées, entières ou dentées-dentées. Les inflorescences sont des racèmes axillaires ou terminaux avec des bractées peu apparentes. Les fleurs sont pédicellées ou sessiles, bisexuées, et plus ou moins zygomorphes. Le calice est tubulaire-campanulé, à 5 dents. La corolle est bleue, violette ou blanche, en entonnoir ou en plateau, avec un tube droit, et un limbe à (4-)5 lobes inégaux. On compte 4 étamines, didynames, insérées vers le milieu du tube de la corolle, incluses, les 2 étamines supérieures portant un épaississement glandulaire. Les anthères sont ovoïdes et dorsifixes. L'ovaire comporte 4 loges, chaque loge contenant 1 unique ovule. Le style porte un stigmate oblique et oblong. Le fruit est une drupe entourée du calice accrescent, cyathiforme, à l'exocarpe mince, charnu et l'endocarpe dur[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Tamonea regroupe des herbacées des sous-arbrisseaux à feuilles simples, opposées décussées, entières ou dentées-dentées. Les inflorescences sont des racèmes axillaires ou terminaux avec des bractées peu apparentes. Les fleurs sont pédicellées ou sessiles, bisexuées, et plus ou moins zygomorphes. Le calice est tubulaire-campanulé, à 5 dents. La corolle est bleue, violette ou blanche, en entonnoir ou en plateau, avec un tube droit, et un limbe à (4-)5 lobes inégaux. On compte 4 étamines, didynames, insérées vers le milieu du tube de la corolle, incluses, les 2 étamines supérieures portant un épaississement glandulaire. Les anthères sont ovoïdes et dorsifixes. L'ovaire comporte 4 loges, chaque loge contenant 1 unique ovule. Le style porte un stigmate oblique et oblong. Le fruit est une drupe entourée du calice accrescent, cyathiforme, à l'exocarpe mince, charnu et l'endocarpe dur.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Tamonea est présent de l'Amérique centrale au nord de l'Amérique du Sud.
 </t>
@@ -573,9 +589,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante[4] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « TAMONEA. (Tabula 268.)
 CAL. Perianthium monophyllum, tubuloſum, ore expanſo, quinquefido, laciniis anguſtis, acutis. 
 COR. monopetala, ringens ; tubus longus, bilabiatus, labio ſuperiore, concavo, integro, ſubrotundo ; labio inferiori, tripartite ; lobis latéralibus ſubrotundis, parvis, intermedio latiori, deflexo, emarginato. 
@@ -610,10 +628,48 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List[5] :
-Espèces valides
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tamonea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tamonea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Espèces valides</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Tamonea androsaemifolia (Griseb.) (Griseb.) Jenn.
 Tamonea boxiana (Moldenke) (Moldenke) R.A.Howard
 Tamonea cubensis (C. (C. Wright ex Griseb.) Krasser
@@ -625,7 +681,43 @@
 Tamonea subbiflora Urb. Urb. &amp; Ekman
 Tamonea theaezans (Bonpl.) (Bonpl.) Kuntze
 Tamonea wrightii (Griseb.) (Griseb.) Jenn.
-Taxons non résolus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tamonea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tamonea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Taxons non résolus</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Tamonea albicans Krasser Krasser
 Tamonea albicans Kuntze Kuntze
 Tamonea andina Krasser Krasser
